--- a/biology/Biochimie/Altrose/Altrose.xlsx
+++ b/biology/Biochimie/Altrose/Altrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Altrose est un aldohexose, un ose composé de 6 atomes de carbone (hexose) et d'une fonction aldéhyde (aldose).
-La forme isomère D est un sucre rare non naturel. Il est soluble dans l'eau et insoluble dans le méthanol. Le L-altrose a été isolé dans la bactérie Butyrivibrio fibrisolvens[2].
+La forme isomère D est un sucre rare non naturel. Il est soluble dans l'eau et insoluble dans le méthanol. Le L-altrose a été isolé dans la bactérie Butyrivibrio fibrisolvens.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Isomérie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Altrose est l'épimère du mannose en C3 (c’est-à-dire que sa configuration spatiale est rigoureusement la même, sauf pour les substituants du carbone 3, où ils sont inversés par rapport au mannose).
-Dans l'eau, la forme isomère prédominante est la forme bêta-D-altropyranose (40 %)[3].
+Dans l'eau, la forme isomère prédominante est la forme bêta-D-altropyranose (40 %).
 </t>
         </is>
       </c>
